--- a/CASUAL/LA CITY MARKET/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
+++ b/CASUAL/LA CITY MARKET/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="127">
   <si>
     <t>PERIOD</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>12/3-5,7,10-12,14,17-19,21/2023</t>
+  </si>
+  <si>
+    <t>12/26,28/2023</t>
   </si>
 </sst>
 </file>
@@ -795,6 +798,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,9 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1713,7 +1716,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
+      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,62 +1738,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="58">
         <v>36745</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1816,18 +1819,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1874,7 +1877,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>45.59899999999999</v>
+        <v>48.09899999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1884,7 +1887,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>87.5</v>
+        <v>90</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3679,13 +3682,15 @@
         <v>45260</v>
       </c>
       <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="37"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="37"/>
       <c r="I95" s="9"/>
@@ -3697,13 +3702,15 @@
         <v>45291</v>
       </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="37"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="37"/>
       <c r="I96" s="9"/>
@@ -3906,7 +3913,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3928,64 +3935,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="58">
         <v>36745</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4011,18 +4018,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4079,7 +4086,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>42.957999999999998</v>
+        <v>40.957999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5631,8 +5638,12 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="38">
+        <v>45261</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C79" s="13"/>
       <c r="D79" s="37"/>
       <c r="E79" s="9"/>
@@ -5641,10 +5652,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H79" s="37"/>
+      <c r="H79" s="37">
+        <v>2</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="20" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
@@ -5683,30 +5698,30 @@
       <c r="B82" s="15"/>
       <c r="C82" s="40"/>
       <c r="D82" s="41"/>
-      <c r="E82" s="61"/>
+      <c r="E82" s="50"/>
       <c r="F82" s="15"/>
       <c r="G82" s="40" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H82" s="41"/>
-      <c r="I82" s="61"/>
+      <c r="I82" s="50"/>
       <c r="J82" s="12"/>
       <c r="K82" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5757,17 +5772,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -5853,17 +5868,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="49"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>133.09899999999999</v>
+        <v>138.09899999999999</v>
       </c>
       <c r="C7" s="46">
         <v>1</v>
